--- a/eStore - Documentação/Checklist.xlsx
+++ b/eStore - Documentação/Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefferson.andrade\Desktop\eStore - Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefferson.andrade\Documents\GitHub\eStore\eStore - Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
   <si>
     <t>Propostas de Projeto</t>
   </si>
@@ -117,10 +117,6 @@
   </si>
   <si>
     <t>Não sei qual documento é esse</t>
-  </si>
-  <si>
-    <t>Precisa encontrar a última versão
-Precisa fazer as duas que faltam</t>
   </si>
   <si>
     <t>Não sei se temos</t>
@@ -523,7 +519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -563,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -580,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -612,7 +610,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -629,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -680,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -780,7 +778,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">

--- a/eStore - Documentação/Checklist.xlsx
+++ b/eStore - Documentação/Checklist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefferson.andrade\Documents\GitHub\eStore\eStore - Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeste_000\Documents\GitHub\eStore\eStore - Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,23 +113,23 @@
     <t>Comentário</t>
   </si>
   <si>
-    <t>Precisa encontrar a última versão</t>
-  </si>
-  <si>
-    <t>Não sei qual documento é esse</t>
-  </si>
-  <si>
-    <t>Não sei se temos</t>
-  </si>
-  <si>
     <t>Precisa fazer do zero ou resgatar de algum documento que tenhamos entregue</t>
+  </si>
+  <si>
+    <t>Status do pedido.</t>
+  </si>
+  <si>
+    <t>Redesenhar com base no código.</t>
+  </si>
+  <si>
+    <t>Revisar.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +139,16 @@
     </font>
     <font>
       <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -146,9 +156,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,33 +184,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,324 +537,326 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E19" sqref="A1:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="8">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="8">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="8">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4">
-        <v>11</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="8">
         <v>16</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="8">
         <v>17</v>
       </c>
-      <c r="D13" s="4">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11">
         <v>18</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4">
-        <v>13</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4">
-        <v>14</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <v>15</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>16</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="4">
-        <v>17</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="5">
-        <v>18</v>
-      </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/eStore - Documentação/Checklist.xlsx
+++ b/eStore - Documentação/Checklist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>Propostas de Projeto</t>
   </si>
@@ -116,32 +116,17 @@
     <t>Precisa fazer do zero ou resgatar de algum documento que tenhamos entregue</t>
   </si>
   <si>
-    <t>Status do pedido.</t>
-  </si>
-  <si>
     <t>Redesenhar com base no código.</t>
-  </si>
-  <si>
-    <t>Revisar.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,9 +141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,31 +178,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -537,7 +522,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E19" sqref="A1:E19"/>
+      <selection activeCell="A2" sqref="A2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,17 +535,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -577,7 +562,7 @@
       <c r="D2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -594,7 +579,7 @@
       <c r="D3" s="8">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -609,7 +594,7 @@
       <c r="D4" s="8">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -626,7 +611,7 @@
       <c r="D5" s="8">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -643,7 +628,7 @@
       <c r="D6" s="8">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -660,7 +645,7 @@
       <c r="D7" s="8">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -677,7 +662,7 @@
       <c r="D8" s="8">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -694,7 +679,7 @@
       <c r="D9" s="8">
         <v>8</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -711,8 +696,8 @@
       <c r="D10" s="8">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -728,7 +713,7 @@
       <c r="D11" s="8">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -745,8 +730,8 @@
       <c r="D12" s="8">
         <v>11</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>31</v>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,7 +747,7 @@
       <c r="D13" s="8">
         <v>12</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -779,7 +764,7 @@
       <c r="D14" s="8">
         <v>13</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -794,8 +779,8 @@
       <c r="D15" s="8">
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>30</v>
+      <c r="E15" s="5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -811,7 +796,7 @@
       <c r="D16" s="8">
         <v>15</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -828,7 +813,7 @@
       <c r="D17" s="8">
         <v>16</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -845,7 +830,7 @@
       <c r="D18" s="8">
         <v>17</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">

--- a/eStore - Documentação/Checklist.xlsx
+++ b/eStore - Documentação/Checklist.xlsx
@@ -522,7 +522,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
